--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxna2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H2">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I2">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J2">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N2">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O2">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P2">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q2">
-        <v>2157.541992884087</v>
+        <v>2243.392298147434</v>
       </c>
       <c r="R2">
-        <v>2157.541992884087</v>
+        <v>20190.53068332691</v>
       </c>
       <c r="S2">
-        <v>0.5333348458609031</v>
+        <v>0.5242145233553857</v>
       </c>
       <c r="T2">
-        <v>0.5333348458609031</v>
+        <v>0.5242145233553859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H3">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I3">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J3">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N3">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O3">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P3">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q3">
-        <v>237.1359436199851</v>
+        <v>245.6399132574054</v>
       </c>
       <c r="R3">
-        <v>237.1359436199851</v>
+        <v>2210.759219316648</v>
       </c>
       <c r="S3">
-        <v>0.05861895729296208</v>
+        <v>0.0573987929581572</v>
       </c>
       <c r="T3">
-        <v>0.05861895729296208</v>
+        <v>0.05739879295815722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H4">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I4">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J4">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N4">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O4">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P4">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q4">
-        <v>95.20349877325215</v>
+        <v>114.2910437783143</v>
       </c>
       <c r="R4">
-        <v>95.20349877325215</v>
+        <v>1028.619394004829</v>
       </c>
       <c r="S4">
-        <v>0.02353388416592409</v>
+        <v>0.02670644144027508</v>
       </c>
       <c r="T4">
-        <v>0.02353388416592409</v>
+        <v>0.02670644144027508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H5">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I5">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J5">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N5">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O5">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P5">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q5">
-        <v>446.0119326951772</v>
+        <v>470.7957945992094</v>
       </c>
       <c r="R5">
-        <v>446.0119326951772</v>
+        <v>4237.162151392885</v>
       </c>
       <c r="S5">
-        <v>0.1102521787110753</v>
+        <v>0.1100110726364477</v>
       </c>
       <c r="T5">
-        <v>0.1102521787110753</v>
+        <v>0.1100110726364477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H6">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I6">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J6">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N6">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O6">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P6">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q6">
-        <v>164.1568187283209</v>
+        <v>176.8614479235133</v>
       </c>
       <c r="R6">
-        <v>164.1568187283209</v>
+        <v>1591.75303131162</v>
       </c>
       <c r="S6">
-        <v>0.04057884013485753</v>
+        <v>0.04132729692427378</v>
       </c>
       <c r="T6">
-        <v>0.04057884013485753</v>
+        <v>0.04132729692427378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H7">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I7">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J7">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N7">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O7">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P7">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q7">
-        <v>18.04251423109454</v>
+        <v>19.365418505888</v>
       </c>
       <c r="R7">
-        <v>18.04251423109454</v>
+        <v>174.288766552992</v>
       </c>
       <c r="S7">
-        <v>0.004460029783022137</v>
+        <v>0.004525126363331433</v>
       </c>
       <c r="T7">
-        <v>0.004460029783022137</v>
+        <v>0.004525126363331433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H8">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I8">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J8">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N8">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O8">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P8">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q8">
-        <v>7.243568626690597</v>
+        <v>9.010318660724</v>
       </c>
       <c r="R8">
-        <v>7.243568626690597</v>
+        <v>81.09286794651601</v>
       </c>
       <c r="S8">
-        <v>0.001790578153167124</v>
+        <v>0.00210544535875961</v>
       </c>
       <c r="T8">
-        <v>0.001790578153167124</v>
+        <v>0.00210544535875961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H9">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I9">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J9">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N9">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O9">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P9">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q9">
-        <v>33.93486672685298</v>
+        <v>37.11594533772666</v>
       </c>
       <c r="R9">
-        <v>33.93486672685298</v>
+        <v>334.04350803954</v>
       </c>
       <c r="S9">
-        <v>0.008388549087233814</v>
+        <v>0.008672900236917126</v>
       </c>
       <c r="T9">
-        <v>0.008388549087233814</v>
+        <v>0.008672900236917127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>15.8053240089188</v>
+        <v>0.02264733333333334</v>
       </c>
       <c r="H10">
-        <v>15.8053240089188</v>
+        <v>0.067942</v>
       </c>
       <c r="I10">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="J10">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N10">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O10">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P10">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q10">
-        <v>651.1873337827383</v>
+        <v>0.9566070916655556</v>
       </c>
       <c r="R10">
-        <v>651.1873337827383</v>
+        <v>8.60946382499</v>
       </c>
       <c r="S10">
-        <v>0.1609706311325769</v>
+        <v>0.0002235308247291152</v>
       </c>
       <c r="T10">
-        <v>0.1609706311325769</v>
+        <v>0.0002235308247291152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>15.8053240089188</v>
+        <v>0.02264733333333334</v>
       </c>
       <c r="H11">
-        <v>15.8053240089188</v>
+        <v>0.067942</v>
       </c>
       <c r="I11">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="J11">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N11">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O11">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P11">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q11">
-        <v>71.57215172601649</v>
+        <v>0.1047435543093334</v>
       </c>
       <c r="R11">
-        <v>71.57215172601649</v>
+        <v>0.9426919887840001</v>
       </c>
       <c r="S11">
-        <v>0.01769231960936343</v>
+        <v>2.44754751285179E-05</v>
       </c>
       <c r="T11">
-        <v>0.01769231960936343</v>
+        <v>2.44754751285179E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>15.8053240089188</v>
+        <v>0.02264733333333334</v>
       </c>
       <c r="H12">
-        <v>15.8053240089188</v>
+        <v>0.067942</v>
       </c>
       <c r="I12">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="J12">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N12">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O12">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P12">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q12">
-        <v>28.73423216670293</v>
+        <v>0.04873495513133334</v>
       </c>
       <c r="R12">
-        <v>28.73423216670293</v>
+        <v>0.438614596182</v>
       </c>
       <c r="S12">
-        <v>0.007102975207019872</v>
+        <v>1.138791966791314E-05</v>
       </c>
       <c r="T12">
-        <v>0.007102975207019872</v>
+        <v>1.138791966791314E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02264733333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.067942</v>
+      </c>
+      <c r="I13">
+        <v>0.0003063041479997877</v>
+      </c>
+      <c r="J13">
+        <v>0.0003063041479997877</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.864288333333333</v>
+      </c>
+      <c r="N13">
+        <v>26.592865</v>
+      </c>
+      <c r="O13">
+        <v>0.1531481985489599</v>
+      </c>
+      <c r="P13">
+        <v>0.15314819854896</v>
+      </c>
+      <c r="Q13">
+        <v>0.2007524926477778</v>
+      </c>
+      <c r="R13">
+        <v>1.80677243383</v>
+      </c>
+      <c r="S13">
+        <v>4.690992847424151E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.690992847424152E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H14">
+        <v>49.848323</v>
+      </c>
+      <c r="I14">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J14">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>42.23928166666666</v>
+      </c>
+      <c r="N14">
+        <v>126.717845</v>
+      </c>
+      <c r="O14">
+        <v>0.7297675404946526</v>
+      </c>
+      <c r="P14">
+        <v>0.7297675404946528</v>
+      </c>
+      <c r="Q14">
+        <v>701.8524519359928</v>
+      </c>
+      <c r="R14">
+        <v>6316.672067423935</v>
+      </c>
+      <c r="S14">
+        <v>0.1640021893902641</v>
+      </c>
+      <c r="T14">
+        <v>0.1640021893902641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H15">
+        <v>49.848323</v>
+      </c>
+      <c r="I15">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J15">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.624984</v>
+      </c>
+      <c r="N15">
+        <v>13.874952</v>
+      </c>
+      <c r="O15">
+        <v>0.07990579066051323</v>
+      </c>
+      <c r="P15">
+        <v>0.07990579066051323</v>
+      </c>
+      <c r="Q15">
+        <v>76.84923210061068</v>
+      </c>
+      <c r="R15">
+        <v>691.643088905496</v>
+      </c>
+      <c r="S15">
+        <v>0.01795739586389607</v>
+      </c>
+      <c r="T15">
+        <v>0.01795739586389607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.8053240089188</v>
-      </c>
-      <c r="H13">
-        <v>15.8053240089188</v>
-      </c>
-      <c r="I13">
-        <v>0.2190421368108548</v>
-      </c>
-      <c r="J13">
-        <v>0.2190421368108548</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.517061084447789</v>
-      </c>
-      <c r="N13">
-        <v>8.517061084447789</v>
-      </c>
-      <c r="O13">
-        <v>0.1519169386602037</v>
-      </c>
-      <c r="P13">
-        <v>0.1519169386602037</v>
-      </c>
-      <c r="Q13">
-        <v>134.6149100434506</v>
-      </c>
-      <c r="R13">
-        <v>134.6149100434506</v>
-      </c>
-      <c r="S13">
-        <v>0.03327621086189457</v>
-      </c>
-      <c r="T13">
-        <v>0.03327621086189457</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H16">
+        <v>49.848323</v>
+      </c>
+      <c r="I16">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J16">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.151907</v>
+      </c>
+      <c r="N16">
+        <v>6.455721</v>
+      </c>
+      <c r="O16">
+        <v>0.03717847029587412</v>
+      </c>
+      <c r="P16">
+        <v>0.03717847029587412</v>
+      </c>
+      <c r="Q16">
+        <v>35.75631840065367</v>
+      </c>
+      <c r="R16">
+        <v>321.806865605883</v>
+      </c>
+      <c r="S16">
+        <v>0.008355195577171511</v>
+      </c>
+      <c r="T16">
+        <v>0.008355195577171511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H17">
+        <v>49.848323</v>
+      </c>
+      <c r="I17">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J17">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.864288333333333</v>
+      </c>
+      <c r="N17">
+        <v>26.592865</v>
+      </c>
+      <c r="O17">
+        <v>0.1531481985489599</v>
+      </c>
+      <c r="P17">
+        <v>0.15314819854896</v>
+      </c>
+      <c r="Q17">
+        <v>147.2899693350439</v>
+      </c>
+      <c r="R17">
+        <v>1325.609724015395</v>
+      </c>
+      <c r="S17">
+        <v>0.0344173157471209</v>
+      </c>
+      <c r="T17">
+        <v>0.0344173157471209</v>
       </c>
     </row>
   </sheetData>
